--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108982.9944197786</v>
+        <v>113599.1136505865</v>
       </c>
     </row>
     <row r="7">
@@ -26347,7 +26347,7 @@
         <v>91456.43851989086</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="O2" t="n">
         <v>91456.43851989086</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="F4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="H4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="I4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="J4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="K4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="L4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="M4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="N4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="O4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="P4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18261.64628294668</v>
+        <v>-17501.48917028305</v>
       </c>
       <c r="C6" t="n">
-        <v>-18261.64628294668</v>
+        <v>-17501.48917028305</v>
       </c>
       <c r="D6" t="n">
-        <v>-18261.64628294668</v>
+        <v>-17501.48917028305</v>
       </c>
       <c r="E6" t="n">
-        <v>-87116.78259183459</v>
+        <v>-86666.30958745729</v>
       </c>
       <c r="F6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="G6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="H6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="I6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="J6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="K6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="L6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="M6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="N6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.69041254273</v>
       </c>
       <c r="O6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
       <c r="P6" t="n">
-        <v>45983.21740816546</v>
+        <v>46433.6904125427</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113599.1136505865</v>
+        <v>127325.4717880046</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>86005.92442515711</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515709</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989086</v>
@@ -26350,7 +26352,7 @@
         <v>91456.43851989089</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989084</v>
       </c>
       <c r="P2" t="n">
         <v>91456.43851989086</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="C4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E4" t="n">
         <v>41411.13600233983</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="E6" t="n">
-        <v>-86666.30958745729</v>
+        <v>-86666.30958745735</v>
       </c>
       <c r="F6" t="n">
         <v>46433.6904125427</v>
@@ -26558,7 +26560,7 @@
         <v>46433.69041254273</v>
       </c>
       <c r="O6" t="n">
-        <v>46433.6904125427</v>
+        <v>46433.69041254269</v>
       </c>
       <c r="P6" t="n">
         <v>46433.6904125427</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127325.4717880046</v>
+        <v>2215.572990527982</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="D2" t="n">
         <v>86005.92442515709</v>
@@ -26349,10 +26349,10 @@
         <v>91456.43851989086</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989084</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="P2" t="n">
         <v>91456.43851989086</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.16314031778</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.16314031778</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031782</v>
       </c>
       <c r="E6" t="n">
-        <v>-86666.30958745735</v>
+        <v>-101476.3264265712</v>
       </c>
       <c r="F6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="G6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="H6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="I6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="J6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="K6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="L6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="M6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="N6" t="n">
-        <v>46433.69041254273</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="O6" t="n">
-        <v>46433.69041254269</v>
+        <v>31623.6735734288</v>
       </c>
       <c r="P6" t="n">
-        <v>46433.6904125427</v>
+        <v>31623.6735734288</v>
       </c>
     </row>
   </sheetData>
